--- a/VersionRecords/Version 6.0.6 20170515/版本Bug和特性计划及评审表v6.0.6_极光组.xlsx
+++ b/VersionRecords/Version 6.0.6 20170515/版本Bug和特性计划及评审表v6.0.6_极光组.xlsx
@@ -25,6 +25,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1426,7 +1427,7 @@
   <dimension ref="A1:X167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
